--- a/Documents/策划/场景元素设定.xlsx
+++ b/Documents/策划/场景元素设定.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\EVOWINTER\documents\第二周\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Unity\EvoWinter\Assets\Documents\策划\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="场景交互元素" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>大型的钟</t>
   </si>
@@ -148,6 +148,14 @@
   </si>
   <si>
     <t>按攻击键打开,可能触发陷阱(几个飞镖向你的位置飞来),可能开启隐藏房间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭坛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开可以获得时效性BUFF加成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -557,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -632,6 +640,14 @@
         <v>40</v>
       </c>
     </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4"/>
     </row>
@@ -726,7 +742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
